--- a/biology/Zoologie/Frewena_maculata/Frewena_maculata.xlsx
+++ b/biology/Zoologie/Frewena_maculata/Frewena_maculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frewena maculata est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frewena maculata est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Territoire du Nord en Australie[1]. Elle se rencontre vers Frewena[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Territoire du Nord en Australie. Elle se rencontre vers Frewena.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,4 mm de long sur 1,2 mm et l'abdomen 1,5 mm de long et la carapace de la femelle paratype mesure 1,5 mm de long sur 1,2 mm et l'abdomen 1,4 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,4 mm de long sur 1,2 mm et l'abdomen 1,5 mm de long et la carapace de la femelle paratype mesure 1,5 mm de long sur 1,2 mm et l'abdomen 1,4 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Richardson en 2013.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Richardson, 2013 : « New unidentate jumping spider genera (Araneae: Salticidae) from Australia. » Zootaxa, no 3716 (3), p. 460-474.</t>
         </is>
